--- a/data/wnba_basketball-reference.xlsx
+++ b/data/wnba_basketball-reference.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sean\Documents\GitHub\groupAC-3_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6ED96F-6713-481D-A3BE-C2A9367EB88B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A29298-86E4-405C-BA8E-67827733B68D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="750" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12555" yWindow="1725" windowWidth="17460" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
   <si>
     <t>Rk</t>
   </si>
@@ -251,9 +251,6 @@
   </si>
   <si>
     <t>Isabelle Harrison</t>
-  </si>
-  <si>
-    <t>Jacki Gemelos</t>
   </si>
   <si>
     <t>Jackie Young</t>
@@ -505,10 +502,10 @@
     <t>Victoria Vivians</t>
   </si>
   <si>
-    <t>GEN</t>
+    <t>SALARY</t>
   </si>
   <si>
-    <t>F</t>
+    <t>RCE</t>
   </si>
 </sst>
 </file>
@@ -1379,8 +1376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:A141"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="W141" sqref="W141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1402,7 +1399,7 @@
     <col min="19" max="19" width="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" customWidth="1"/>
     <col min="23" max="24" width="5" bestFit="1" customWidth="1"/>
     <col min="25" max="27" width="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="4.28515625" bestFit="1" customWidth="1"/>
@@ -1475,6 +1472,9 @@
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>161</v>
       </c>
       <c r="AC1" s="1"/>
@@ -1543,8 +1543,11 @@
       <c r="U2" s="4">
         <v>20.5</v>
       </c>
-      <c r="V2" t="s">
-        <v>162</v>
+      <c r="V2" s="4">
+        <v>58045</v>
+      </c>
+      <c r="W2" s="4">
+        <v>1</v>
       </c>
       <c r="AC2" s="3"/>
     </row>
@@ -1612,8 +1615,11 @@
       <c r="U3" s="4">
         <v>16.3</v>
       </c>
-      <c r="V3" t="s">
-        <v>162</v>
+      <c r="V3" s="4">
+        <v>63516</v>
+      </c>
+      <c r="W3" s="4">
+        <v>1</v>
       </c>
       <c r="AC3" s="3"/>
     </row>
@@ -1681,8 +1687,11 @@
       <c r="U4" s="4">
         <v>2.5</v>
       </c>
-      <c r="V4" t="s">
-        <v>162</v>
+      <c r="V4" s="4">
+        <v>53616</v>
+      </c>
+      <c r="W4" s="4">
+        <v>1</v>
       </c>
       <c r="AC4" s="3"/>
     </row>
@@ -1750,8 +1759,11 @@
       <c r="U5" s="4">
         <v>6.1</v>
       </c>
-      <c r="V5" t="s">
-        <v>162</v>
+      <c r="V5" s="4">
+        <v>58710</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0</v>
       </c>
       <c r="AC5" s="3"/>
     </row>
@@ -1819,8 +1831,11 @@
       <c r="U6" s="4">
         <v>4</v>
       </c>
-      <c r="V6" t="s">
-        <v>162</v>
+      <c r="V6" s="4">
+        <v>30000</v>
+      </c>
+      <c r="W6" s="4">
+        <v>1</v>
       </c>
       <c r="AC6" s="3"/>
     </row>
@@ -1888,8 +1903,11 @@
       <c r="U7" s="4">
         <v>1.6</v>
       </c>
-      <c r="V7" t="s">
-        <v>162</v>
+      <c r="V7" s="4">
+        <v>15360</v>
+      </c>
+      <c r="W7" s="4">
+        <v>1</v>
       </c>
       <c r="AC7" s="3"/>
     </row>
@@ -1957,8 +1975,11 @@
       <c r="U8" s="4">
         <v>15.4</v>
       </c>
-      <c r="V8" t="s">
-        <v>162</v>
+      <c r="V8" s="4">
+        <v>117500</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
       </c>
       <c r="AC8" s="3"/>
     </row>
@@ -2026,8 +2047,11 @@
       <c r="U9" s="4">
         <v>13.1</v>
       </c>
-      <c r="V9" t="s">
-        <v>162</v>
+      <c r="V9" s="4">
+        <v>160000</v>
+      </c>
+      <c r="W9" s="4">
+        <v>1</v>
       </c>
       <c r="AC9" s="3"/>
     </row>
@@ -2095,8 +2119,11 @@
       <c r="U10" s="4">
         <v>10</v>
       </c>
-      <c r="V10" t="s">
-        <v>162</v>
+      <c r="V10" s="4">
+        <v>84100</v>
+      </c>
+      <c r="W10" s="4">
+        <v>1</v>
       </c>
       <c r="AC10" s="3"/>
     </row>
@@ -2164,8 +2191,11 @@
       <c r="U11" s="4">
         <v>15.5</v>
       </c>
-      <c r="V11" t="s">
-        <v>162</v>
+      <c r="V11" s="4">
+        <v>200000</v>
+      </c>
+      <c r="W11" s="4">
+        <v>1</v>
       </c>
       <c r="AC11" s="3"/>
     </row>
@@ -2233,8 +2263,11 @@
       <c r="U12" s="4">
         <v>9</v>
       </c>
-      <c r="V12" t="s">
-        <v>162</v>
+      <c r="V12" s="4">
+        <v>109000</v>
+      </c>
+      <c r="W12" s="4">
+        <v>1</v>
       </c>
       <c r="AC12" s="3"/>
     </row>
@@ -2302,8 +2335,11 @@
       <c r="U13" s="4">
         <v>14.4</v>
       </c>
-      <c r="V13" t="s">
-        <v>162</v>
+      <c r="V13" s="4">
+        <v>215000</v>
+      </c>
+      <c r="W13" s="4">
+        <v>1</v>
       </c>
       <c r="AC13" s="3"/>
     </row>
@@ -2371,8 +2407,11 @@
       <c r="U14" s="4">
         <v>14.8</v>
       </c>
-      <c r="V14" t="s">
-        <v>162</v>
+      <c r="V14" s="4">
+        <v>170000</v>
+      </c>
+      <c r="W14" s="4">
+        <v>1</v>
       </c>
       <c r="AC14" s="3"/>
     </row>
@@ -2440,8 +2479,11 @@
       <c r="U15" s="4">
         <v>22.8</v>
       </c>
-      <c r="V15" t="s">
-        <v>162</v>
+      <c r="V15" s="4">
+        <v>58170</v>
+      </c>
+      <c r="W15" s="4">
+        <v>1</v>
       </c>
       <c r="AC15" s="3"/>
     </row>
@@ -2509,8 +2551,11 @@
       <c r="U16" s="4">
         <v>3.5</v>
       </c>
-      <c r="V16" t="s">
-        <v>162</v>
+      <c r="V16" s="4">
+        <v>190550</v>
+      </c>
+      <c r="W16" s="4">
+        <v>1</v>
       </c>
       <c r="AC16" s="3"/>
     </row>
@@ -2578,8 +2623,11 @@
       <c r="U17" s="4">
         <v>11.5</v>
       </c>
-      <c r="V17" t="s">
-        <v>162</v>
+      <c r="V17" s="4">
+        <v>70040</v>
+      </c>
+      <c r="W17" s="4">
+        <v>1</v>
       </c>
       <c r="AC17" s="3"/>
     </row>
@@ -2647,8 +2695,11 @@
       <c r="U18" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="V18" t="s">
-        <v>162</v>
+      <c r="V18" s="4">
+        <v>58710</v>
+      </c>
+      <c r="W18" s="4">
+        <v>1</v>
       </c>
       <c r="AC18" s="3"/>
     </row>
@@ -2716,8 +2767,11 @@
       <c r="U19" s="4">
         <v>2.7</v>
       </c>
-      <c r="V19" t="s">
-        <v>162</v>
+      <c r="V19" s="4">
+        <v>66555</v>
+      </c>
+      <c r="W19" s="4">
+        <v>0</v>
       </c>
       <c r="AC19" s="3"/>
     </row>
@@ -2785,8 +2839,11 @@
       <c r="U20" s="4">
         <v>17.2</v>
       </c>
-      <c r="V20" t="s">
-        <v>162</v>
+      <c r="V20" s="4">
+        <v>190550</v>
+      </c>
+      <c r="W20" s="4">
+        <v>1</v>
       </c>
       <c r="AC20" s="3"/>
     </row>
@@ -2854,8 +2911,11 @@
       <c r="U21" s="4">
         <v>5.9</v>
       </c>
-      <c r="V21" t="s">
-        <v>162</v>
+      <c r="V21" s="4">
+        <v>41695</v>
+      </c>
+      <c r="W21" s="4">
+        <v>0</v>
       </c>
       <c r="AC21" s="3"/>
     </row>
@@ -2923,8 +2983,11 @@
       <c r="U22" s="4">
         <v>19.7</v>
       </c>
-      <c r="V22" t="s">
-        <v>162</v>
+      <c r="V22" s="4">
+        <v>190500</v>
+      </c>
+      <c r="W22" s="4">
+        <v>0</v>
       </c>
       <c r="AC22" s="3"/>
     </row>
@@ -2992,8 +3055,11 @@
       <c r="U23" s="4">
         <v>14.6</v>
       </c>
-      <c r="V23" t="s">
-        <v>162</v>
+      <c r="V23" s="4">
+        <v>185000</v>
+      </c>
+      <c r="W23" s="4">
+        <v>1</v>
       </c>
       <c r="AC23" s="3"/>
     </row>
@@ -3061,8 +3127,11 @@
       <c r="U24" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="V24" t="s">
-        <v>162</v>
+      <c r="V24" s="4">
+        <v>53290</v>
+      </c>
+      <c r="W24" s="4">
+        <v>1</v>
       </c>
       <c r="AC24" s="3"/>
     </row>
@@ -3130,8 +3199,11 @@
       <c r="U25" s="4">
         <v>5</v>
       </c>
-      <c r="V25" t="s">
-        <v>162</v>
+      <c r="V25" s="4">
+        <v>121500</v>
+      </c>
+      <c r="W25" s="4">
+        <v>1</v>
       </c>
       <c r="AC25" s="3"/>
     </row>
@@ -3199,8 +3271,11 @@
       <c r="U26" s="4">
         <v>7.2</v>
       </c>
-      <c r="V26" t="s">
-        <v>162</v>
+      <c r="V26" s="4">
+        <v>44207</v>
+      </c>
+      <c r="W26" s="4">
+        <v>1</v>
       </c>
       <c r="AC26" s="3"/>
     </row>
@@ -3268,8 +3343,11 @@
       <c r="U27" s="4">
         <v>6.6</v>
       </c>
-      <c r="V27" t="s">
-        <v>162</v>
+      <c r="V27" s="4">
+        <v>58170</v>
+      </c>
+      <c r="W27" s="4">
+        <v>0</v>
       </c>
       <c r="AC27" s="3"/>
     </row>
@@ -3337,8 +3415,11 @@
       <c r="U28" s="4">
         <v>11.2</v>
       </c>
-      <c r="V28" t="s">
-        <v>162</v>
+      <c r="V28" s="4">
+        <v>120000</v>
+      </c>
+      <c r="W28" s="4">
+        <v>1</v>
       </c>
       <c r="AC28" s="3"/>
     </row>
@@ -3406,8 +3487,11 @@
       <c r="U29" s="4">
         <v>0.8</v>
       </c>
-      <c r="V29" t="s">
-        <v>162</v>
+      <c r="V29" s="4">
+        <v>59750</v>
+      </c>
+      <c r="W29" s="4">
+        <v>0</v>
       </c>
       <c r="AC29" s="3"/>
     </row>
@@ -3475,8 +3559,11 @@
       <c r="U30" s="4">
         <v>17.7</v>
       </c>
-      <c r="V30" t="s">
-        <v>162</v>
+      <c r="V30" s="4">
+        <v>215000</v>
+      </c>
+      <c r="W30" s="4">
+        <v>1</v>
       </c>
       <c r="AC30" s="3"/>
     </row>
@@ -3544,8 +3631,11 @@
       <c r="U31" s="4">
         <v>10.1</v>
       </c>
-      <c r="V31" t="s">
-        <v>162</v>
+      <c r="V31" s="4">
+        <v>52428</v>
+      </c>
+      <c r="W31" s="4">
+        <v>1</v>
       </c>
       <c r="AC31" s="3"/>
     </row>
@@ -3613,8 +3703,11 @@
       <c r="U32" s="4">
         <v>14.7</v>
       </c>
-      <c r="V32" t="s">
-        <v>162</v>
+      <c r="V32" s="4">
+        <v>190000</v>
+      </c>
+      <c r="W32" s="4">
+        <v>1</v>
       </c>
       <c r="AC32" s="3"/>
     </row>
@@ -3682,8 +3775,11 @@
       <c r="U33" s="4">
         <v>12.5</v>
       </c>
-      <c r="V33" t="s">
-        <v>162</v>
+      <c r="V33" s="4">
+        <v>170000</v>
+      </c>
+      <c r="W33" s="4">
+        <v>1</v>
       </c>
       <c r="AC33" s="3"/>
     </row>
@@ -3751,8 +3847,11 @@
       <c r="U34" s="4">
         <v>2.9</v>
       </c>
-      <c r="V34" t="s">
-        <v>162</v>
+      <c r="V34" s="4">
+        <v>84150</v>
+      </c>
+      <c r="W34" s="4">
+        <v>0</v>
       </c>
       <c r="AC34" s="3"/>
     </row>
@@ -3820,8 +3919,11 @@
       <c r="U35" s="4">
         <v>14</v>
       </c>
-      <c r="V35" t="s">
-        <v>162</v>
+      <c r="V35" s="4">
+        <v>115000</v>
+      </c>
+      <c r="W35" s="4">
+        <v>1</v>
       </c>
       <c r="AC35" s="3"/>
     </row>
@@ -3889,8 +3991,11 @@
       <c r="U36" s="4">
         <v>17.399999999999999</v>
       </c>
-      <c r="V36" t="s">
-        <v>162</v>
+      <c r="V36" s="4">
+        <v>69300</v>
+      </c>
+      <c r="W36" s="4">
+        <v>1</v>
       </c>
       <c r="AC36" s="3"/>
     </row>
@@ -3958,8 +4063,11 @@
       <c r="U37" s="4">
         <v>13.4</v>
       </c>
-      <c r="V37" t="s">
-        <v>162</v>
+      <c r="V37" s="4">
+        <v>192500</v>
+      </c>
+      <c r="W37" s="4">
+        <v>1</v>
       </c>
       <c r="AC37" s="3"/>
     </row>
@@ -4027,8 +4135,11 @@
       <c r="U38" s="4">
         <v>0.3</v>
       </c>
-      <c r="V38" t="s">
-        <v>162</v>
+      <c r="V38" s="4">
+        <v>58710</v>
+      </c>
+      <c r="W38" s="4">
+        <v>1</v>
       </c>
       <c r="AC38" s="3"/>
     </row>
@@ -4096,8 +4207,11 @@
       <c r="U39" s="4">
         <v>13.6</v>
       </c>
-      <c r="V39" t="s">
-        <v>162</v>
+      <c r="V39" s="4">
+        <v>200000</v>
+      </c>
+      <c r="W39" s="4">
+        <v>0</v>
       </c>
       <c r="AC39" s="3"/>
     </row>
@@ -4165,8 +4279,11 @@
       <c r="U40" s="4">
         <v>14.6</v>
       </c>
-      <c r="V40" t="s">
-        <v>162</v>
+      <c r="V40" s="4">
+        <v>185000</v>
+      </c>
+      <c r="W40" s="4">
+        <v>1</v>
       </c>
       <c r="AC40" s="3"/>
     </row>
@@ -4234,8 +4351,11 @@
       <c r="U41" s="4">
         <v>16.2</v>
       </c>
-      <c r="V41" t="s">
-        <v>162</v>
+      <c r="V41" s="4">
+        <v>62579</v>
+      </c>
+      <c r="W41" s="4">
+        <v>1</v>
       </c>
       <c r="AC41" s="3"/>
     </row>
@@ -4303,8 +4423,11 @@
       <c r="U42" s="4">
         <v>1.4</v>
       </c>
-      <c r="V42" t="s">
-        <v>162</v>
+      <c r="V42" s="4">
+        <v>105000</v>
+      </c>
+      <c r="W42" s="4">
+        <v>1</v>
       </c>
       <c r="AC42" s="3"/>
     </row>
@@ -4372,8 +4495,11 @@
       <c r="U43" s="4">
         <v>12.9</v>
       </c>
-      <c r="V43" t="s">
-        <v>162</v>
+      <c r="V43" s="4">
+        <v>126000</v>
+      </c>
+      <c r="W43" s="4">
+        <v>1</v>
       </c>
       <c r="AC43" s="3"/>
     </row>
@@ -4441,8 +4567,11 @@
       <c r="U44" s="4">
         <v>7.4</v>
       </c>
-      <c r="V44" t="s">
-        <v>162</v>
+      <c r="V44" s="4">
+        <v>110000</v>
+      </c>
+      <c r="W44" s="4">
+        <v>1</v>
       </c>
       <c r="AC44" s="3"/>
     </row>
@@ -4510,8 +4639,11 @@
       <c r="U45" s="4">
         <v>19.7</v>
       </c>
-      <c r="V45" t="s">
-        <v>162</v>
+      <c r="V45" s="4">
+        <v>224870</v>
+      </c>
+      <c r="W45" s="4">
+        <v>1</v>
       </c>
       <c r="AC45" s="3"/>
     </row>
@@ -4579,8 +4711,11 @@
       <c r="U46" s="4">
         <v>13</v>
       </c>
-      <c r="V46" t="s">
-        <v>162</v>
+      <c r="V46" s="4">
+        <v>117000</v>
+      </c>
+      <c r="W46" s="4">
+        <v>1</v>
       </c>
       <c r="AC46" s="3"/>
     </row>
@@ -4648,8 +4783,11 @@
       <c r="U47" s="4">
         <v>6.8</v>
       </c>
-      <c r="V47" t="s">
-        <v>162</v>
+      <c r="V47" s="4">
+        <v>70040</v>
+      </c>
+      <c r="W47" s="4">
+        <v>1</v>
       </c>
       <c r="AC47" s="3"/>
     </row>
@@ -4717,8 +4855,11 @@
       <c r="U48" s="4">
         <v>18.7</v>
       </c>
-      <c r="V48" t="s">
-        <v>162</v>
+      <c r="V48" s="4">
+        <v>119500</v>
+      </c>
+      <c r="W48" s="4">
+        <v>1</v>
       </c>
       <c r="AC48" s="3"/>
     </row>
@@ -4786,8 +4927,11 @@
       <c r="U49" s="4">
         <v>10.1</v>
       </c>
-      <c r="V49" t="s">
-        <v>162</v>
+      <c r="V49" s="4">
+        <v>119000</v>
+      </c>
+      <c r="W49" s="4">
+        <v>1</v>
       </c>
       <c r="AC49" s="3"/>
     </row>
@@ -4855,8 +4999,11 @@
       <c r="U50" s="4">
         <v>13</v>
       </c>
-      <c r="V50" t="s">
-        <v>162</v>
+      <c r="V50" s="4">
+        <v>215000</v>
+      </c>
+      <c r="W50" s="4">
+        <v>0</v>
       </c>
       <c r="AC50" s="3"/>
     </row>
@@ -4924,8 +5071,11 @@
       <c r="U51" s="4">
         <v>4.3</v>
       </c>
-      <c r="V51" t="s">
-        <v>162</v>
+      <c r="V51" s="4">
+        <v>68000</v>
+      </c>
+      <c r="W51" s="4">
+        <v>1</v>
       </c>
       <c r="AC51" s="3"/>
     </row>
@@ -4993,8 +5143,11 @@
       <c r="U52" s="4">
         <v>2.6</v>
       </c>
-      <c r="V52" t="s">
-        <v>162</v>
+      <c r="V52" s="4">
+        <v>72000</v>
+      </c>
+      <c r="W52" s="4">
+        <v>1</v>
       </c>
       <c r="AC52" s="3"/>
     </row>
@@ -5062,8 +5215,11 @@
       <c r="U53" s="4">
         <v>3.7</v>
       </c>
-      <c r="V53" t="s">
-        <v>162</v>
+      <c r="V53" s="4">
+        <v>57000</v>
+      </c>
+      <c r="W53" s="4">
+        <v>1</v>
       </c>
       <c r="AC53" s="3"/>
     </row>
@@ -5131,8 +5287,11 @@
       <c r="U54" s="4">
         <v>6.5</v>
       </c>
-      <c r="V54" t="s">
-        <v>162</v>
+      <c r="V54" s="4">
+        <v>58170</v>
+      </c>
+      <c r="W54" s="4">
+        <v>1</v>
       </c>
       <c r="AC54" s="3"/>
     </row>
@@ -5200,8 +5359,11 @@
       <c r="U55" s="4">
         <v>7.7</v>
       </c>
-      <c r="V55" t="s">
-        <v>162</v>
+      <c r="V55" s="4">
+        <v>70040</v>
+      </c>
+      <c r="W55" s="4">
+        <v>1</v>
       </c>
       <c r="AC55" s="3"/>
     </row>
@@ -5269,8 +5431,11 @@
       <c r="U56" s="4">
         <v>4.7</v>
       </c>
-      <c r="V56" t="s">
-        <v>162</v>
+      <c r="V56" s="4">
+        <v>60000</v>
+      </c>
+      <c r="W56" s="4">
+        <v>1</v>
       </c>
       <c r="AC56" s="3"/>
     </row>
@@ -5338,78 +5503,35 @@
       <c r="U57" s="4">
         <v>6.4</v>
       </c>
-      <c r="V57" t="s">
-        <v>162</v>
+      <c r="V57" s="4">
+        <v>154500</v>
+      </c>
+      <c r="W57" s="4">
+        <v>1</v>
       </c>
       <c r="AC57" s="3"/>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="4">
-        <v>18</v>
-      </c>
-      <c r="D58" s="4">
-        <v>12.3</v>
-      </c>
-      <c r="E58" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F58" s="4">
-        <v>3.1</v>
-      </c>
-      <c r="G58" s="4">
-        <v>33.9</v>
-      </c>
-      <c r="H58" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I58" s="4">
-        <v>1.9</v>
-      </c>
-      <c r="J58" s="4">
-        <v>25.7</v>
-      </c>
-      <c r="K58" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="L58" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="M58" s="4">
-        <v>50</v>
-      </c>
-      <c r="N58" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="O58" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="P58" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q58" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="R58" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="S58" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="T58" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="U58" s="4">
-        <v>2.7</v>
-      </c>
-      <c r="V58" t="s">
-        <v>162</v>
-      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
       <c r="AC58" s="3"/>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
@@ -5417,7 +5539,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59" s="4">
         <v>22</v>
@@ -5476,8 +5598,11 @@
       <c r="U59" s="4">
         <v>11</v>
       </c>
-      <c r="V59" t="s">
-        <v>162</v>
+      <c r="V59" s="4">
+        <v>59071</v>
+      </c>
+      <c r="W59" s="4">
+        <v>1</v>
       </c>
       <c r="AC59" s="3"/>
     </row>
@@ -5486,7 +5611,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C60" s="4">
         <v>19</v>
@@ -5545,8 +5670,11 @@
       <c r="U60" s="4">
         <v>10.199999999999999</v>
       </c>
-      <c r="V60" t="s">
-        <v>162</v>
+      <c r="V60" s="4">
+        <v>185000</v>
+      </c>
+      <c r="W60" s="4">
+        <v>1</v>
       </c>
       <c r="AC60" s="3"/>
     </row>
@@ -5555,7 +5683,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C61" s="4">
         <v>12</v>
@@ -5614,8 +5742,11 @@
       <c r="U61" s="4">
         <v>1.3</v>
       </c>
-      <c r="V61" t="s">
-        <v>162</v>
+      <c r="V61" s="4">
+        <v>59750</v>
+      </c>
+      <c r="W61" s="4">
+        <v>1</v>
       </c>
       <c r="AC61" s="3"/>
     </row>
@@ -5624,7 +5755,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C62" s="4">
         <v>20</v>
@@ -5683,8 +5814,11 @@
       <c r="U62" s="4">
         <v>10.8</v>
       </c>
-      <c r="V62" t="s">
-        <v>162</v>
+      <c r="V62" s="4">
+        <v>63571</v>
+      </c>
+      <c r="W62" s="4">
+        <v>1</v>
       </c>
       <c r="AC62" s="3"/>
     </row>
@@ -5693,7 +5827,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C63" s="4">
         <v>22</v>
@@ -5752,8 +5886,11 @@
       <c r="U63" s="4">
         <v>15.5</v>
       </c>
-      <c r="V63" t="s">
-        <v>162</v>
+      <c r="V63" s="4">
+        <v>119500</v>
+      </c>
+      <c r="W63" s="4">
+        <v>1</v>
       </c>
       <c r="AC63" s="3"/>
     </row>
@@ -5762,7 +5899,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C64" s="4">
         <v>22</v>
@@ -5821,8 +5958,11 @@
       <c r="U64" s="4">
         <v>5.8</v>
       </c>
-      <c r="V64" t="s">
-        <v>162</v>
+      <c r="V64" s="4">
+        <v>65459</v>
+      </c>
+      <c r="W64" s="4">
+        <v>1</v>
       </c>
       <c r="AC64" s="3"/>
     </row>
@@ -5831,7 +5971,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C65" s="4">
         <v>20</v>
@@ -5890,8 +6030,11 @@
       <c r="U65" s="4">
         <v>7.9</v>
       </c>
-      <c r="V65" t="s">
-        <v>162</v>
+      <c r="V65" s="4">
+        <v>70040</v>
+      </c>
+      <c r="W65" s="4">
+        <v>1</v>
       </c>
       <c r="AC65" s="3"/>
     </row>
@@ -5900,7 +6043,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C66" s="4">
         <v>19</v>
@@ -5959,8 +6102,11 @@
       <c r="U66" s="4">
         <v>2.9</v>
       </c>
-      <c r="V66" t="s">
-        <v>162</v>
+      <c r="V66" s="4">
+        <v>58710</v>
+      </c>
+      <c r="W66" s="4">
+        <v>1</v>
       </c>
       <c r="AC66" s="3"/>
     </row>
@@ -5969,7 +6115,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C67" s="4">
         <v>22</v>
@@ -6028,8 +6174,11 @@
       <c r="U67" s="4">
         <v>8.5</v>
       </c>
-      <c r="V67" t="s">
-        <v>162</v>
+      <c r="V67" s="4">
+        <v>58710</v>
+      </c>
+      <c r="W67" s="4">
+        <v>0</v>
       </c>
       <c r="AC67" s="3"/>
     </row>
@@ -6038,7 +6187,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C68" s="4">
         <v>2</v>
@@ -6097,8 +6246,11 @@
       <c r="U68" s="4">
         <v>0</v>
       </c>
-      <c r="V68" t="s">
-        <v>162</v>
+      <c r="V68" s="4">
+        <v>70040</v>
+      </c>
+      <c r="W68" s="4">
+        <v>1</v>
       </c>
       <c r="AC68" s="3"/>
     </row>
@@ -6107,7 +6259,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C69" s="4">
         <v>22</v>
@@ -6166,8 +6318,11 @@
       <c r="U69" s="4">
         <v>14.8</v>
       </c>
-      <c r="V69" t="s">
-        <v>162</v>
+      <c r="V69" s="4">
+        <v>165000</v>
+      </c>
+      <c r="W69" s="4">
+        <v>1</v>
       </c>
       <c r="AC69" s="3"/>
     </row>
@@ -6176,7 +6331,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C70" s="4">
         <v>21</v>
@@ -6235,8 +6390,11 @@
       <c r="U70" s="4">
         <v>5.4</v>
       </c>
-      <c r="V70" t="s">
-        <v>162</v>
+      <c r="V70" s="4">
+        <v>60946</v>
+      </c>
+      <c r="W70" s="4">
+        <v>1</v>
       </c>
       <c r="AC70" s="3"/>
     </row>
@@ -6245,7 +6403,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C71" s="4">
         <v>10</v>
@@ -6304,8 +6462,11 @@
       <c r="U71" s="4">
         <v>3</v>
       </c>
-      <c r="V71" t="s">
-        <v>162</v>
+      <c r="V71" s="4">
+        <v>57000</v>
+      </c>
+      <c r="W71" s="4">
+        <v>1</v>
       </c>
       <c r="AC71" s="3"/>
     </row>
@@ -6314,7 +6475,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C72" s="4">
         <v>16</v>
@@ -6373,8 +6534,11 @@
       <c r="U72" s="4">
         <v>3.4</v>
       </c>
-      <c r="V72" t="s">
-        <v>162</v>
+      <c r="V72" s="4">
+        <v>71400</v>
+      </c>
+      <c r="W72" s="4">
+        <v>1</v>
       </c>
       <c r="AC72" s="3"/>
     </row>
@@ -6383,7 +6547,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="4">
         <v>7</v>
@@ -6442,8 +6606,11 @@
       <c r="U73" s="4">
         <v>3.9</v>
       </c>
-      <c r="V73" t="s">
-        <v>162</v>
+      <c r="V73" s="4">
+        <v>58710</v>
+      </c>
+      <c r="W73" s="4">
+        <v>1</v>
       </c>
       <c r="AC73" s="3"/>
     </row>
@@ -6452,7 +6619,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="4">
         <v>18</v>
@@ -6511,8 +6678,11 @@
       <c r="U74" s="4">
         <v>1.5</v>
       </c>
-      <c r="V74" t="s">
-        <v>162</v>
+      <c r="V74" s="4">
+        <v>62579</v>
+      </c>
+      <c r="W74" s="4">
+        <v>0</v>
       </c>
       <c r="AC74" s="3"/>
     </row>
@@ -6521,7 +6691,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C75" s="4">
         <v>22</v>
@@ -6580,8 +6750,11 @@
       <c r="U75" s="4">
         <v>5</v>
       </c>
-      <c r="V75" t="s">
-        <v>162</v>
+      <c r="V75" s="4">
+        <v>53537</v>
+      </c>
+      <c r="W75" s="4">
+        <v>0</v>
       </c>
       <c r="AC75" s="3"/>
     </row>
@@ -6590,7 +6763,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C76" s="4">
         <v>16</v>
@@ -6649,8 +6822,11 @@
       <c r="U76" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="V76" t="s">
-        <v>162</v>
+      <c r="V76" s="4">
+        <v>93600</v>
+      </c>
+      <c r="W76" s="4">
+        <v>1</v>
       </c>
       <c r="AC76" s="3"/>
     </row>
@@ -6659,7 +6835,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C77" s="4">
         <v>22</v>
@@ -6718,8 +6894,11 @@
       <c r="U77" s="4">
         <v>12.5</v>
       </c>
-      <c r="V77" t="s">
-        <v>162</v>
+      <c r="V77" s="4">
+        <v>190550</v>
+      </c>
+      <c r="W77" s="4">
+        <v>1</v>
       </c>
       <c r="AC77" s="3"/>
     </row>
@@ -6728,7 +6907,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C78" s="4">
         <v>22</v>
@@ -6787,8 +6966,11 @@
       <c r="U78" s="4">
         <v>7.3</v>
       </c>
-      <c r="V78" t="s">
-        <v>162</v>
+      <c r="V78" s="4">
+        <v>89200</v>
+      </c>
+      <c r="W78" s="4">
+        <v>1</v>
       </c>
       <c r="AC78" s="3"/>
     </row>
@@ -6797,7 +6979,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C79" s="4">
         <v>22</v>
@@ -6856,8 +7038,11 @@
       <c r="U79" s="4">
         <v>17.899999999999999</v>
       </c>
-      <c r="V79" t="s">
-        <v>162</v>
+      <c r="V79" s="4">
+        <v>58045</v>
+      </c>
+      <c r="W79" s="4">
+        <v>1</v>
       </c>
       <c r="AC79" s="3"/>
     </row>
@@ -6866,7 +7051,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C80" s="4">
         <v>22</v>
@@ -6925,8 +7110,11 @@
       <c r="U80" s="4">
         <v>7.2</v>
       </c>
-      <c r="V80" t="s">
-        <v>162</v>
+      <c r="V80" s="4">
+        <v>57000</v>
+      </c>
+      <c r="W80" s="4">
+        <v>1</v>
       </c>
       <c r="AC80" s="3"/>
     </row>
@@ -6935,7 +7123,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C81" s="4">
         <v>21</v>
@@ -6994,8 +7182,11 @@
       <c r="U81" s="4">
         <v>12.2</v>
       </c>
-      <c r="V81" t="s">
-        <v>162</v>
+      <c r="V81" s="4">
+        <v>57000</v>
+      </c>
+      <c r="W81" s="4">
+        <v>1</v>
       </c>
       <c r="AC81" s="3"/>
     </row>
@@ -7004,7 +7195,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C82" s="4">
         <v>22</v>
@@ -7063,8 +7254,11 @@
       <c r="U82" s="4">
         <v>6.1</v>
       </c>
-      <c r="V82" t="s">
-        <v>162</v>
+      <c r="V82" s="4">
+        <v>41574</v>
+      </c>
+      <c r="W82" s="4">
+        <v>1</v>
       </c>
       <c r="AC82" s="3"/>
     </row>
@@ -7073,7 +7267,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C83" s="4">
         <v>22</v>
@@ -7132,8 +7326,11 @@
       <c r="U83" s="4">
         <v>5.7</v>
       </c>
-      <c r="V83" t="s">
-        <v>162</v>
+      <c r="V83" s="4">
+        <v>109200</v>
+      </c>
+      <c r="W83" s="4">
+        <v>1</v>
       </c>
       <c r="AC83" s="3"/>
     </row>
@@ -7142,7 +7339,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C84" s="4">
         <v>19</v>
@@ -7201,8 +7398,11 @@
       <c r="U84" s="4">
         <v>5.5</v>
       </c>
-      <c r="V84" t="s">
-        <v>162</v>
+      <c r="V84" s="4">
+        <v>58710</v>
+      </c>
+      <c r="W84" s="4">
+        <v>1</v>
       </c>
       <c r="AC84" s="3"/>
     </row>
@@ -7211,7 +7411,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C85" s="4">
         <v>17</v>
@@ -7270,8 +7470,11 @@
       <c r="U85" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="V85" t="s">
-        <v>162</v>
+      <c r="V85" s="4">
+        <v>58710</v>
+      </c>
+      <c r="W85" s="4">
+        <v>1</v>
       </c>
       <c r="AC85" s="3"/>
     </row>
@@ -7280,7 +7483,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C86" s="4">
         <v>20</v>
@@ -7339,8 +7542,11 @@
       <c r="U86" s="4">
         <v>4.0999999999999996</v>
       </c>
-      <c r="V86" t="s">
-        <v>162</v>
+      <c r="V86" s="4">
+        <v>59750</v>
+      </c>
+      <c r="W86" s="4">
+        <v>0</v>
       </c>
       <c r="AC86" s="3"/>
     </row>
@@ -7349,7 +7555,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C87" s="4">
         <v>14</v>
@@ -7408,8 +7614,11 @@
       <c r="U87" s="4">
         <v>3.6</v>
       </c>
-      <c r="V87" t="s">
-        <v>162</v>
+      <c r="V87" s="4">
+        <v>68000</v>
+      </c>
+      <c r="W87" s="4">
+        <v>0</v>
       </c>
       <c r="AC87" s="3"/>
     </row>
@@ -7418,7 +7627,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C88" s="4">
         <v>19</v>
@@ -7477,8 +7686,11 @@
       <c r="U88" s="4">
         <v>11.5</v>
       </c>
-      <c r="V88" t="s">
-        <v>162</v>
+      <c r="V88" s="4">
+        <v>120000</v>
+      </c>
+      <c r="W88" s="4">
+        <v>1</v>
       </c>
       <c r="AC88" s="3"/>
     </row>
@@ -7487,7 +7699,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C89" s="4">
         <v>22</v>
@@ -7546,8 +7758,11 @@
       <c r="U89" s="4">
         <v>5.5</v>
       </c>
-      <c r="V89" t="s">
-        <v>162</v>
+      <c r="V89" s="4">
+        <v>60946</v>
+      </c>
+      <c r="W89" s="4">
+        <v>1</v>
       </c>
       <c r="AC89" s="3"/>
     </row>
@@ -7556,7 +7771,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C90" s="4">
         <v>22</v>
@@ -7615,8 +7830,11 @@
       <c r="U90" s="4">
         <v>9.5</v>
       </c>
-      <c r="V90" t="s">
-        <v>162</v>
+      <c r="V90" s="4">
+        <v>123500</v>
+      </c>
+      <c r="W90" s="4">
+        <v>1</v>
       </c>
       <c r="AC90" s="3"/>
     </row>
@@ -7625,7 +7843,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C91" s="4">
         <v>17</v>
@@ -7684,8 +7902,11 @@
       <c r="U91" s="4">
         <v>6.4</v>
       </c>
-      <c r="V91" t="s">
-        <v>162</v>
+      <c r="V91" s="4">
+        <v>47930</v>
+      </c>
+      <c r="W91" s="4">
+        <v>1</v>
       </c>
       <c r="AC91" s="3"/>
     </row>
@@ -7694,7 +7915,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C92" s="4">
         <v>21</v>
@@ -7753,8 +7974,11 @@
       <c r="U92" s="4">
         <v>3.3</v>
       </c>
-      <c r="V92" t="s">
-        <v>162</v>
+      <c r="V92" s="4">
+        <v>70040</v>
+      </c>
+      <c r="W92" s="4">
+        <v>1</v>
       </c>
       <c r="AC92" s="3"/>
     </row>
@@ -7763,7 +7987,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C93" s="4">
         <v>12</v>
@@ -7822,8 +8046,11 @@
       <c r="U93" s="4">
         <v>2.4</v>
       </c>
-      <c r="V93" t="s">
-        <v>162</v>
+      <c r="V93" s="4">
+        <v>47930</v>
+      </c>
+      <c r="W93" s="4">
+        <v>0</v>
       </c>
       <c r="AC93" s="3"/>
     </row>
@@ -7832,7 +8059,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C94" s="4">
         <v>18</v>
@@ -7891,8 +8118,11 @@
       <c r="U94" s="4">
         <v>10.6</v>
       </c>
-      <c r="V94" t="s">
-        <v>162</v>
+      <c r="V94" s="4">
+        <v>57000</v>
+      </c>
+      <c r="W94" s="4">
+        <v>0</v>
       </c>
       <c r="AC94" s="3"/>
     </row>
@@ -7901,7 +8131,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C95" s="4">
         <v>9</v>
@@ -7960,8 +8190,11 @@
       <c r="U95" s="4">
         <v>1.6</v>
       </c>
-      <c r="V95" t="s">
-        <v>162</v>
+      <c r="V95" s="4">
+        <v>63500</v>
+      </c>
+      <c r="W95" s="4">
+        <v>0</v>
       </c>
       <c r="AC95" s="3"/>
     </row>
@@ -7970,7 +8203,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C96" s="4">
         <v>18</v>
@@ -8029,8 +8262,11 @@
       <c r="U96" s="4">
         <v>3.3</v>
       </c>
-      <c r="V96" t="s">
-        <v>162</v>
+      <c r="V96" s="4">
+        <v>62500</v>
+      </c>
+      <c r="W96" s="4">
+        <v>1</v>
       </c>
       <c r="AC96" s="3"/>
     </row>
@@ -8039,7 +8275,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C97" s="4">
         <v>22</v>
@@ -8098,8 +8334,11 @@
       <c r="U97" s="4">
         <v>3.5</v>
       </c>
-      <c r="V97" t="s">
-        <v>162</v>
+      <c r="V97" s="4">
+        <v>70040</v>
+      </c>
+      <c r="W97" s="4">
+        <v>1</v>
       </c>
       <c r="AC97" s="3"/>
     </row>
@@ -8108,7 +8347,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C98" s="4">
         <v>21</v>
@@ -8167,8 +8406,11 @@
       <c r="U98" s="4">
         <v>3.8</v>
       </c>
-      <c r="V98" t="s">
-        <v>162</v>
+      <c r="V98" s="4">
+        <v>65250</v>
+      </c>
+      <c r="W98" s="4">
+        <v>1</v>
       </c>
       <c r="AC98" s="3"/>
     </row>
@@ -8177,7 +8419,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C99" s="4">
         <v>22</v>
@@ -8236,8 +8478,11 @@
       <c r="U99" s="4">
         <v>8.5</v>
       </c>
-      <c r="V99" t="s">
-        <v>162</v>
+      <c r="V99" s="4">
+        <v>57000</v>
+      </c>
+      <c r="W99" s="4">
+        <v>1</v>
       </c>
       <c r="AC99" s="3"/>
     </row>
@@ -8246,7 +8491,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C100" s="4">
         <v>10</v>
@@ -8305,8 +8550,11 @@
       <c r="U100" s="4">
         <v>1.7</v>
       </c>
-      <c r="V100" t="s">
-        <v>162</v>
+      <c r="V100" s="4">
+        <v>115000</v>
+      </c>
+      <c r="W100" s="4">
+        <v>1</v>
       </c>
       <c r="AC100" s="3"/>
     </row>
@@ -8315,7 +8563,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C101" s="4">
         <v>9</v>
@@ -8374,8 +8622,11 @@
       <c r="U101" s="4">
         <v>5</v>
       </c>
-      <c r="V101" t="s">
-        <v>162</v>
+      <c r="V101" s="4">
+        <v>175100</v>
+      </c>
+      <c r="W101" s="4">
+        <v>1</v>
       </c>
       <c r="AC101" s="3"/>
     </row>
@@ -8384,7 +8635,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C102" s="4">
         <v>22</v>
@@ -8443,8 +8694,11 @@
       <c r="U102" s="4">
         <v>17</v>
       </c>
-      <c r="V102" t="s">
-        <v>162</v>
+      <c r="V102" s="4">
+        <v>70040</v>
+      </c>
+      <c r="W102" s="4">
+        <v>1</v>
       </c>
       <c r="AC102" s="3"/>
     </row>
@@ -8453,7 +8707,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C103" s="4">
         <v>22</v>
@@ -8512,8 +8766,11 @@
       <c r="U103" s="4">
         <v>16.100000000000001</v>
       </c>
-      <c r="V103" t="s">
-        <v>162</v>
+      <c r="V103" s="4">
+        <v>58710</v>
+      </c>
+      <c r="W103" s="4">
+        <v>1</v>
       </c>
       <c r="AC103" s="3"/>
     </row>
@@ -8522,7 +8779,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C104" s="4">
         <v>18</v>
@@ -8581,8 +8838,11 @@
       <c r="U104" s="4">
         <v>7.8</v>
       </c>
-      <c r="V104" t="s">
-        <v>162</v>
+      <c r="V104" s="4">
+        <v>159867</v>
+      </c>
+      <c r="W104" s="4">
+        <v>1</v>
       </c>
       <c r="AC104" s="3"/>
     </row>
@@ -8591,7 +8851,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C105" s="4">
         <v>22</v>
@@ -8650,8 +8910,11 @@
       <c r="U105" s="4">
         <v>9.5</v>
       </c>
-      <c r="V105" t="s">
-        <v>162</v>
+      <c r="V105" s="4">
+        <v>215000</v>
+      </c>
+      <c r="W105" s="4">
+        <v>1</v>
       </c>
       <c r="AC105" s="3"/>
     </row>
@@ -8660,7 +8923,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C106" s="4">
         <v>22</v>
@@ -8719,8 +8982,11 @@
       <c r="U106" s="4">
         <v>6.1</v>
       </c>
-      <c r="V106" t="s">
-        <v>162</v>
+      <c r="V106" s="4">
+        <v>27598</v>
+      </c>
+      <c r="W106" s="4">
+        <v>1</v>
       </c>
       <c r="AC106" s="3"/>
     </row>
@@ -8729,7 +8995,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C107" s="4">
         <v>15</v>
@@ -8788,8 +9054,11 @@
       <c r="U107" s="4">
         <v>2.7</v>
       </c>
-      <c r="V107" t="s">
-        <v>162</v>
+      <c r="V107" s="4">
+        <v>68000</v>
+      </c>
+      <c r="W107" s="4">
+        <v>1</v>
       </c>
       <c r="AC107" s="3"/>
     </row>
@@ -8798,7 +9067,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C108" s="4">
         <v>18</v>
@@ -8857,8 +9126,11 @@
       <c r="U108" s="4">
         <v>13.3</v>
       </c>
-      <c r="V108" t="s">
-        <v>162</v>
+      <c r="V108" s="4">
+        <v>63710</v>
+      </c>
+      <c r="W108" s="4">
+        <v>1</v>
       </c>
       <c r="AC108" s="3"/>
     </row>
@@ -8867,7 +9139,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C109" s="4">
         <v>13</v>
@@ -8926,8 +9198,11 @@
       <c r="U109" s="4">
         <v>9.4</v>
       </c>
-      <c r="V109" t="s">
-        <v>162</v>
+      <c r="V109" s="4">
+        <v>117000</v>
+      </c>
+      <c r="W109" s="4">
+        <v>1</v>
       </c>
       <c r="AC109" s="3"/>
     </row>
@@ -8936,7 +9211,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C110" s="4">
         <v>11</v>
@@ -8995,8 +9270,11 @@
       <c r="U110" s="4">
         <v>6.9</v>
       </c>
-      <c r="V110" t="s">
-        <v>162</v>
+      <c r="V110" s="4">
+        <v>57000</v>
+      </c>
+      <c r="W110" s="4">
+        <v>1</v>
       </c>
       <c r="AC110" s="3"/>
     </row>
@@ -9005,7 +9283,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C111" s="4">
         <v>20</v>
@@ -9064,8 +9342,11 @@
       <c r="U111" s="4">
         <v>6.9</v>
       </c>
-      <c r="V111" t="s">
-        <v>162</v>
+      <c r="V111" s="4">
+        <v>103000</v>
+      </c>
+      <c r="W111" s="4">
+        <v>1</v>
       </c>
       <c r="AC111" s="3"/>
     </row>
@@ -9074,7 +9355,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C112" s="4">
         <v>10</v>
@@ -9133,8 +9414,11 @@
       <c r="U112" s="4">
         <v>1.4</v>
       </c>
-      <c r="V112" t="s">
-        <v>162</v>
+      <c r="V112" s="4">
+        <v>68000</v>
+      </c>
+      <c r="W112" s="4">
+        <v>1</v>
       </c>
       <c r="AC112" s="3"/>
     </row>
@@ -9143,7 +9427,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C113" s="4">
         <v>21</v>
@@ -9202,8 +9486,11 @@
       <c r="U113" s="4">
         <v>10.5</v>
       </c>
-      <c r="V113" t="s">
-        <v>162</v>
+      <c r="V113" s="4">
+        <v>112000</v>
+      </c>
+      <c r="W113" s="4">
+        <v>1</v>
       </c>
       <c r="AC113" s="3"/>
     </row>
@@ -9212,7 +9499,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C114" s="4">
         <v>22</v>
@@ -9271,8 +9558,11 @@
       <c r="U114" s="4">
         <v>5.7</v>
       </c>
-      <c r="V114" t="s">
-        <v>162</v>
+      <c r="V114" s="4">
+        <v>65250</v>
+      </c>
+      <c r="W114" s="4">
+        <v>1</v>
       </c>
       <c r="AC114" s="3"/>
     </row>
@@ -9281,7 +9571,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C115" s="4">
         <v>3</v>
@@ -9340,8 +9630,11 @@
       <c r="U115" s="4">
         <v>18.3</v>
       </c>
-      <c r="V115" t="s">
-        <v>162</v>
+      <c r="V115" s="4">
+        <v>68000</v>
+      </c>
+      <c r="W115" s="4">
+        <v>0</v>
       </c>
       <c r="AC115" s="3"/>
     </row>
@@ -9350,7 +9643,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C116" s="4">
         <v>22</v>
@@ -9409,8 +9702,11 @@
       <c r="U116" s="4">
         <v>8.1</v>
       </c>
-      <c r="V116" t="s">
-        <v>162</v>
+      <c r="V116" s="4">
+        <v>50000</v>
+      </c>
+      <c r="W116" s="4">
+        <v>0</v>
       </c>
       <c r="AC116" s="3"/>
     </row>
@@ -9419,7 +9715,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C117" s="4">
         <v>16</v>
@@ -9478,8 +9774,11 @@
       <c r="U117" s="4">
         <v>13.9</v>
       </c>
-      <c r="V117" t="s">
-        <v>162</v>
+      <c r="V117" s="4">
+        <v>68000</v>
+      </c>
+      <c r="W117" s="4">
+        <v>1</v>
       </c>
       <c r="AC117" s="3"/>
     </row>
@@ -9488,7 +9787,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C118" s="4">
         <v>21</v>
@@ -9547,8 +9846,11 @@
       <c r="U118" s="4">
         <v>5.9</v>
       </c>
-      <c r="V118" t="s">
-        <v>162</v>
+      <c r="V118" s="4">
+        <v>70040</v>
+      </c>
+      <c r="W118" s="4">
+        <v>1</v>
       </c>
       <c r="AC118" s="3"/>
     </row>
@@ -9557,7 +9859,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C119" s="4">
         <v>21</v>
@@ -9616,8 +9918,11 @@
       <c r="U119" s="4">
         <v>7.3</v>
       </c>
-      <c r="V119" t="s">
-        <v>162</v>
+      <c r="V119" s="4">
+        <v>52656</v>
+      </c>
+      <c r="W119" s="4">
+        <v>1</v>
       </c>
       <c r="AC119" s="3"/>
     </row>
@@ -9626,7 +9931,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C120" s="4">
         <v>22</v>
@@ -9685,8 +9990,11 @@
       <c r="U120" s="4">
         <v>6.1</v>
       </c>
-      <c r="V120" t="s">
-        <v>162</v>
+      <c r="V120" s="4">
+        <v>170000</v>
+      </c>
+      <c r="W120" s="4">
+        <v>1</v>
       </c>
       <c r="AC120" s="3"/>
     </row>
@@ -9695,7 +10003,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C121" s="4">
         <v>17</v>
@@ -9754,8 +10062,11 @@
       <c r="U121" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="V121" t="s">
-        <v>162</v>
+      <c r="V121" s="4">
+        <v>58170</v>
+      </c>
+      <c r="W121" s="4">
+        <v>1</v>
       </c>
       <c r="AC121" s="3"/>
     </row>
@@ -9764,7 +10075,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C122" s="4">
         <v>17</v>
@@ -9823,8 +10134,11 @@
       <c r="U122" s="4">
         <v>3.8</v>
       </c>
-      <c r="V122" t="s">
-        <v>162</v>
+      <c r="V122" s="4">
+        <v>2723</v>
+      </c>
+      <c r="W122" s="4">
+        <v>1</v>
       </c>
       <c r="AC122" s="3"/>
     </row>
@@ -9833,7 +10147,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C123" s="4">
         <v>22</v>
@@ -9892,8 +10206,11 @@
       <c r="U123" s="4">
         <v>17.7</v>
       </c>
-      <c r="V123" t="s">
-        <v>162</v>
+      <c r="V123" s="4">
+        <v>221450</v>
+      </c>
+      <c r="W123" s="4">
+        <v>1</v>
       </c>
       <c r="AC123" s="3"/>
     </row>
@@ -9902,7 +10219,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C124" s="4">
         <v>21</v>
@@ -9961,8 +10278,11 @@
       <c r="U124" s="4">
         <v>5</v>
       </c>
-      <c r="V124" t="s">
-        <v>162</v>
+      <c r="V124" s="4">
+        <v>42570</v>
+      </c>
+      <c r="W124" s="4">
+        <v>0</v>
       </c>
       <c r="AC124" s="3"/>
     </row>
@@ -9971,7 +10291,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C125" s="4">
         <v>15</v>
@@ -10030,8 +10350,11 @@
       <c r="U125" s="4">
         <v>6.4</v>
       </c>
-      <c r="V125" t="s">
-        <v>162</v>
+      <c r="V125" s="4">
+        <v>180250</v>
+      </c>
+      <c r="W125" s="4">
+        <v>0</v>
       </c>
       <c r="AC125" s="3"/>
     </row>
@@ -10040,7 +10363,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C126" s="4">
         <v>9</v>
@@ -10099,8 +10422,11 @@
       <c r="U126" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="V126" t="s">
-        <v>162</v>
+      <c r="V126" s="4">
+        <v>58710</v>
+      </c>
+      <c r="W126" s="4">
+        <v>1</v>
       </c>
       <c r="AC126" s="3"/>
     </row>
@@ -10109,7 +10435,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C127" s="4">
         <v>10</v>
@@ -10168,8 +10494,11 @@
       <c r="U127" s="4">
         <v>3.5</v>
       </c>
-      <c r="V127" t="s">
-        <v>162</v>
+      <c r="V127" s="4">
+        <v>70040</v>
+      </c>
+      <c r="W127" s="4">
+        <v>1</v>
       </c>
       <c r="AC127" s="3"/>
     </row>
@@ -10178,7 +10507,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C128" s="4">
         <v>11</v>
@@ -10237,8 +10566,11 @@
       <c r="U128" s="4">
         <v>9.8000000000000007</v>
       </c>
-      <c r="V128" t="s">
-        <v>162</v>
+      <c r="V128" s="4">
+        <v>215000</v>
+      </c>
+      <c r="W128" s="4">
+        <v>0</v>
       </c>
       <c r="AC128" s="3"/>
     </row>
@@ -10247,7 +10579,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C129" s="4">
         <v>12</v>
@@ -10306,8 +10638,11 @@
       <c r="U129" s="4">
         <v>2.8</v>
       </c>
-      <c r="V129" t="s">
-        <v>162</v>
+      <c r="V129" s="4">
+        <v>58710</v>
+      </c>
+      <c r="W129" s="4">
+        <v>1</v>
       </c>
       <c r="AC129" s="3"/>
     </row>
@@ -10316,7 +10651,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C130" s="4">
         <v>22</v>
@@ -10375,8 +10710,11 @@
       <c r="U130" s="4">
         <v>3.4</v>
       </c>
-      <c r="V130" t="s">
-        <v>162</v>
+      <c r="V130" s="4">
+        <v>80000</v>
+      </c>
+      <c r="W130" s="4">
+        <v>1</v>
       </c>
       <c r="AC130" s="3"/>
     </row>
@@ -10385,7 +10723,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C131" s="4">
         <v>17</v>
@@ -10444,8 +10782,11 @@
       <c r="U131" s="4">
         <v>1.6</v>
       </c>
-      <c r="V131" t="s">
-        <v>162</v>
+      <c r="V131" s="4">
+        <v>70000</v>
+      </c>
+      <c r="W131" s="4">
+        <v>1</v>
       </c>
       <c r="AC131" s="3"/>
     </row>
@@ -10454,7 +10795,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C132" s="4">
         <v>19</v>
@@ -10513,8 +10854,11 @@
       <c r="U132" s="4">
         <v>6.8</v>
       </c>
-      <c r="V132" t="s">
-        <v>162</v>
+      <c r="V132" s="4">
+        <v>80000</v>
+      </c>
+      <c r="W132" s="4">
+        <v>0</v>
       </c>
       <c r="AC132" s="3"/>
     </row>
@@ -10523,7 +10867,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C133" s="4">
         <v>7</v>
@@ -10582,8 +10926,11 @@
       <c r="U133" s="4">
         <v>14.6</v>
       </c>
-      <c r="V133" t="s">
-        <v>162</v>
+      <c r="V133" s="4">
+        <v>210000</v>
+      </c>
+      <c r="W133" s="4">
+        <v>1</v>
       </c>
       <c r="AC133" s="3"/>
     </row>
@@ -10592,7 +10939,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C134" s="4">
         <v>20</v>
@@ -10651,8 +10998,11 @@
       <c r="U134" s="4">
         <v>7</v>
       </c>
-      <c r="V134" t="s">
-        <v>162</v>
+      <c r="V134" s="4">
+        <v>58170</v>
+      </c>
+      <c r="W134" s="4">
+        <v>1</v>
       </c>
       <c r="AC134" s="3"/>
     </row>
@@ -10661,7 +11011,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C135" s="4">
         <v>22</v>
@@ -10720,8 +11070,11 @@
       <c r="U135" s="4">
         <v>10.9</v>
       </c>
-      <c r="V135" t="s">
-        <v>162</v>
+      <c r="V135" s="4">
+        <v>60609</v>
+      </c>
+      <c r="W135" s="4">
+        <v>1</v>
       </c>
       <c r="AC135" s="3"/>
     </row>
@@ -10730,7 +11083,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C136" s="4">
         <v>13</v>
@@ -10789,8 +11142,11 @@
       <c r="U136" s="4">
         <v>2.5</v>
       </c>
-      <c r="V136" t="s">
-        <v>162</v>
+      <c r="V136" s="4">
+        <v>104000</v>
+      </c>
+      <c r="W136" s="4">
+        <v>0</v>
       </c>
       <c r="AC136" s="3"/>
     </row>
@@ -10799,7 +11155,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C137" s="4">
         <v>17</v>
@@ -10858,8 +11214,11 @@
       <c r="U137" s="4">
         <v>8.5</v>
       </c>
-      <c r="V137" t="s">
-        <v>162</v>
+      <c r="V137" s="4">
+        <v>140000</v>
+      </c>
+      <c r="W137" s="4">
+        <v>1</v>
       </c>
       <c r="AC137" s="3"/>
     </row>
@@ -10868,7 +11227,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C138" s="4">
         <v>17</v>
@@ -10927,8 +11286,11 @@
       <c r="U138" s="4">
         <v>2.9</v>
       </c>
-      <c r="V138" t="s">
-        <v>162</v>
+      <c r="V138" s="4">
+        <v>90000</v>
+      </c>
+      <c r="W138" s="4">
+        <v>1</v>
       </c>
       <c r="AC138" s="3"/>
     </row>
@@ -10937,7 +11299,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C139" s="4">
         <v>19</v>
@@ -10996,8 +11358,11 @@
       <c r="U139" s="4">
         <v>12.7</v>
       </c>
-      <c r="V139" t="s">
-        <v>162</v>
+      <c r="V139" s="4">
+        <v>144000</v>
+      </c>
+      <c r="W139" s="4">
+        <v>1</v>
       </c>
       <c r="AC139" s="3"/>
     </row>
@@ -11006,7 +11371,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C140" s="4">
         <v>21</v>
@@ -11065,8 +11430,11 @@
       <c r="U140" s="4">
         <v>6.8</v>
       </c>
-      <c r="V140" t="s">
-        <v>162</v>
+      <c r="V140" s="4">
+        <v>68339</v>
+      </c>
+      <c r="W140" s="4">
+        <v>1</v>
       </c>
       <c r="AC140" s="3"/>
     </row>
@@ -11075,7 +11443,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C141" s="4">
         <v>6</v>
@@ -11134,8 +11502,11 @@
       <c r="U141" s="4">
         <v>4.8</v>
       </c>
-      <c r="V141" t="s">
-        <v>162</v>
+      <c r="V141" s="4">
+        <v>62041</v>
+      </c>
+      <c r="W141" s="4">
+        <v>1</v>
       </c>
       <c r="AC141" s="3"/>
     </row>
